--- a/biology/Botanique/Stéphane_Marie/Stéphane_Marie.xlsx
+++ b/biology/Botanique/Stéphane_Marie/Stéphane_Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Marie</t>
+          <t>Stéphane_Marie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Stéphane Marie, né le 28 septembre[1] 1960 à Barneville-Carteret dans la Manche, est un animateur de télévision et auteur français.
+Stéphane Marie, né le 28 septembre 1960 à Barneville-Carteret dans la Manche, est un animateur de télévision et auteur français.
 Depuis 1998, il anime un magazine hebdomadaire consacré au jardinage, d'abord sur La Cinquième puis sur France 5, sous le nom de Silence, ça pousse ! . En parallèle, il écrit plusieurs ouvrages sur le jardin et les plantes.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Marie</t>
+          <t>Stéphane_Marie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1960[2] à Barneville-Carteret dans la Manche[3],[4], Stéphane Marie ne s'intéresse qu'à l'art et la décoration lors de sa scolarité. Il part pour Caen faire un CAP de tapissier-décorateur. Il étudie aussi six ans à l'École Supérieure d'Art et de Design d'Orléans[5] dont il sort avec le Diplôme national supérieur d'expression plastique[2].
-Après ses études, il se tourne vers le théâtre et la scénographie. Pendant douze ans, il s'occupe des décors et des costumes[2],[6].
-Au début des années 1990[2], il récupère la maison de son oncle (La Maubrairie)[7],[8],[9] située à Saint-Pierre-d'Arthéglise[4]. Il se met alors à entretenir son terrain et se passionne pour le jardinage[2].
-En 1998, il peut enfin allier sa nouvelle passion à son travail en rejoignant l'équipe d'un magazine hebdomadaire de La Cinquième consacré au jardinage, rebaptisé Silence, ça pousse! lorsque cette chaîne devient France 5 en 2002. Il est également le rédacteur en chef du programme qu'il co-anime avec Noëlle Bréham[6] de 2002 à 2015[10], Caroline Munoz[11] de 2015 à 2016 et Carole Tolila[12] depuis 2016. Le magazine est tourné dans son propre jardin de 2 000 m2[13].
-Dans le prolongement de son activité télévisuelle, il écrit plusieurs livres sur l'aménagement du jardin[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1960 à Barneville-Carteret dans la Manche Stéphane Marie ne s'intéresse qu'à l'art et la décoration lors de sa scolarité. Il part pour Caen faire un CAP de tapissier-décorateur. Il étudie aussi six ans à l'École Supérieure d'Art et de Design d'Orléans dont il sort avec le Diplôme national supérieur d'expression plastique.
+Après ses études, il se tourne vers le théâtre et la scénographie. Pendant douze ans, il s'occupe des décors et des costumes,.
+Au début des années 1990, il récupère la maison de son oncle (La Maubrairie) située à Saint-Pierre-d'Arthéglise. Il se met alors à entretenir son terrain et se passionne pour le jardinage.
+En 1998, il peut enfin allier sa nouvelle passion à son travail en rejoignant l'équipe d'un magazine hebdomadaire de La Cinquième consacré au jardinage, rebaptisé Silence, ça pousse! lorsque cette chaîne devient France 5 en 2002. Il est également le rédacteur en chef du programme qu'il co-anime avec Noëlle Bréham de 2002 à 2015, Caroline Munoz de 2015 à 2016 et Carole Tolila depuis 2016. Le magazine est tourné dans son propre jardin de 2 000 m2.
+Dans le prolongement de son activité télévisuelle, il écrit plusieurs livres sur l'aménagement du jardin.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Marie</t>
+          <t>Stéphane_Marie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Silence, ça pousse ! : Nos meilleurs trucs et astuces pour ne pas se planter  (co-auteur Noëlle Bréham), Paris, Éditions Mango, septembre 2007, 63 p. (ISBN 978-2-84270-697-5, BNF 41115257) ;
 Silence, ça pousse ! : Pas de panique !, Paris, Éditions Mango, coll. « Silence, ça pousse ! », octobre 2008, 63 p. (ISBN 978-2-84270-747-7, BNF 41359711) ;
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Marie</t>
+          <t>Stéphane_Marie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,9 +601,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rosiériste Dominique Croix lui dédie en 2020 un rosier liane aux fleurs simples rose tyrien du nom de 'Stéphane Marie', issu de 'Ghislaine de Féligonde' x Rosa chinensis 'Sanguinea'[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rosiériste Dominique Croix lui dédie en 2020 un rosier liane aux fleurs simples rose tyrien du nom de 'Stéphane Marie', issu de 'Ghislaine de Féligonde' x Rosa chinensis 'Sanguinea'.
 </t>
         </is>
       </c>
